--- a/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_hist_price_Avg.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_hist_price_Avg.xlsx
@@ -397,7 +397,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -414,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.858883216167294E-11</v>
+        <v>2.195405251500087E-06</v>
       </c>
       <c r="D2">
         <v>0.005847165279804633</v>
@@ -431,7 +431,7 @@
         <v>2.950586604829724E-12</v>
       </c>
       <c r="C3">
-        <v>5.025079404054473E-06</v>
+        <v>0.0001062411525673284</v>
       </c>
       <c r="D3">
         <v>0.005098564920815786</v>
@@ -448,7 +448,7 @@
         <v>4.6059516217121E-14</v>
       </c>
       <c r="C4">
-        <v>9.977804045657202E-07</v>
+        <v>9.608716352691787E-05</v>
       </c>
       <c r="D4">
         <v>0.00416693752575932</v>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.627657735623706E-20</v>
+        <v>2.138791829054013E-09</v>
       </c>
       <c r="D5">
         <v>0.0002303590698439988</v>
@@ -492,7 +492,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -587,7 +587,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -604,7 +604,7 @@
         <v>4.950652275767183E-06</v>
       </c>
       <c r="C2">
-        <v>0.00022820374506862</v>
+        <v>0.003816340722347758</v>
       </c>
       <c r="D2">
         <v>0.550768107103167</v>
@@ -621,7 +621,7 @@
         <v>3.366271645354549E-05</v>
       </c>
       <c r="C3">
-        <v>0.01295041722719747</v>
+        <v>0.0137679456486295</v>
       </c>
       <c r="D3">
         <v>0.3911106879319725</v>
@@ -638,7 +638,7 @@
         <v>9.983318368989137E-05</v>
       </c>
       <c r="C4">
-        <v>0.002830890116813284</v>
+        <v>0.003685389348936462</v>
       </c>
       <c r="D4">
         <v>0.331920791580023</v>
@@ -655,7 +655,7 @@
         <v>3.136226004447017E-05</v>
       </c>
       <c r="C5">
-        <v>0.002070717598057516</v>
+        <v>0.008080293662215502</v>
       </c>
       <c r="D5">
         <v>0.4766952795048035</v>
@@ -682,7 +682,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -699,7 +699,7 @@
         <v>8.265846938516411E-07</v>
       </c>
       <c r="C2">
-        <v>2.352433236158991E-05</v>
+        <v>5.750015024097242E-05</v>
       </c>
       <c r="D2">
         <v>0.01548797540195856</v>
@@ -716,7 +716,7 @@
         <v>8.821213221951678E-07</v>
       </c>
       <c r="C3">
-        <v>0.0004775458214733943</v>
+        <v>0.0001921210602835477</v>
       </c>
       <c r="D3">
         <v>0.008156762103353418</v>
@@ -733,7 +733,7 @@
         <v>5.652393175857317E-06</v>
       </c>
       <c r="C4">
-        <v>0.0001052097936530436</v>
+        <v>5.3924808017845E-05</v>
       </c>
       <c r="D4">
         <v>0.008428959977190469</v>
@@ -750,7 +750,7 @@
         <v>3.035133465763993E-06</v>
       </c>
       <c r="C5">
-        <v>0.0001218230503195887</v>
+        <v>6.847896595910317E-05</v>
       </c>
       <c r="D5">
         <v>0.01443724683792224</v>

--- a/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_hist_price_Avg.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_hist_price_Avg.xlsx
@@ -414,13 +414,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.195405251500087E-06</v>
+        <v>2.195405251500088E-06</v>
       </c>
       <c r="D2">
         <v>0.005847165279804633</v>
       </c>
       <c r="E2">
-        <v>0.006693555412443471</v>
+        <v>0.006693555412443477</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.950586604829724E-12</v>
+        <v>2.950586604829726E-12</v>
       </c>
       <c r="C3">
-        <v>0.0001062411525673284</v>
+        <v>0.0001062411525673285</v>
       </c>
       <c r="D3">
-        <v>0.005098564920815786</v>
+        <v>0.005098564920815791</v>
       </c>
       <c r="E3">
-        <v>0.005951755481861875</v>
+        <v>0.005951755481861879</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.6059516217121E-14</v>
+        <v>4.605951621712102E-14</v>
       </c>
       <c r="C4">
-        <v>9.608716352691787E-05</v>
+        <v>9.608716352691796E-05</v>
       </c>
       <c r="D4">
-        <v>0.00416693752575932</v>
+        <v>0.004166937525759324</v>
       </c>
       <c r="E4">
-        <v>0.005255530560794508</v>
+        <v>0.005255530560794511</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.138791829054013E-09</v>
+        <v>2.138791829054015E-09</v>
       </c>
       <c r="D5">
-        <v>0.0002303590698439988</v>
+        <v>0.000230359069843999</v>
       </c>
       <c r="E5">
-        <v>0.0004388860940365129</v>
+        <v>0.0004388860940365133</v>
       </c>
     </row>
   </sheetData>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.950652275767183E-06</v>
+        <v>4.950652275767181E-06</v>
       </c>
       <c r="C2">
-        <v>0.003816340722347758</v>
+        <v>0.003816340722347759</v>
       </c>
       <c r="D2">
-        <v>0.550768107103167</v>
+        <v>0.5507681071031671</v>
       </c>
       <c r="E2">
-        <v>0.502835091397397</v>
+        <v>0.5028350913973972</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.366271645354549E-05</v>
+        <v>3.36627164535455E-05</v>
       </c>
       <c r="C3">
-        <v>0.0137679456486295</v>
+        <v>0.01376794564862951</v>
       </c>
       <c r="D3">
-        <v>0.3911106879319725</v>
+        <v>0.3911106879319727</v>
       </c>
       <c r="E3">
-        <v>0.3861173623126662</v>
+        <v>0.3861173623126664</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -638,13 +638,13 @@
         <v>9.983318368989137E-05</v>
       </c>
       <c r="C4">
-        <v>0.003685389348936462</v>
+        <v>0.003685389348936459</v>
       </c>
       <c r="D4">
-        <v>0.331920791580023</v>
+        <v>0.3319207915800227</v>
       </c>
       <c r="E4">
-        <v>0.3888815357154959</v>
+        <v>0.3888815357154957</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -655,7 +655,7 @@
         <v>3.136226004447017E-05</v>
       </c>
       <c r="C5">
-        <v>0.008080293662215502</v>
+        <v>0.0080802936622155</v>
       </c>
       <c r="D5">
         <v>0.4766952795048035</v>
@@ -699,13 +699,13 @@
         <v>8.265846938516411E-07</v>
       </c>
       <c r="C2">
-        <v>5.750015024097242E-05</v>
+        <v>5.750015024097246E-05</v>
       </c>
       <c r="D2">
-        <v>0.01548797540195856</v>
+        <v>0.01548797540195857</v>
       </c>
       <c r="E2">
-        <v>0.01434882283128581</v>
+        <v>0.01434882283128582</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.821213221951678E-07</v>
+        <v>8.821213221951682E-07</v>
       </c>
       <c r="C3">
-        <v>0.0001921210602835477</v>
+        <v>0.000192121060283548</v>
       </c>
       <c r="D3">
-        <v>0.008156762103353418</v>
+        <v>0.008156762103353424</v>
       </c>
       <c r="E3">
-        <v>0.007973700395273651</v>
+        <v>0.007973700395273658</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,13 +730,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.652393175857317E-06</v>
+        <v>5.652393175857315E-06</v>
       </c>
       <c r="C4">
         <v>5.3924808017845E-05</v>
       </c>
       <c r="D4">
-        <v>0.008428959977190469</v>
+        <v>0.008428959977190465</v>
       </c>
       <c r="E4">
         <v>0.01001017620351884</v>
@@ -747,13 +747,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.035133465763993E-06</v>
+        <v>3.03513346576399E-06</v>
       </c>
       <c r="C5">
-        <v>6.847896595910317E-05</v>
+        <v>6.847896595910314E-05</v>
       </c>
       <c r="D5">
-        <v>0.01443724683792224</v>
+        <v>0.01443724683792223</v>
       </c>
       <c r="E5">
         <v>0.01190407088332092</v>
